--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41551.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.76</v>
+        <v>3.38</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.78</v>
+        <v>3.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.47</v>
+        <v>18.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.41</v>
+        <v>3.44</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.91</v>
+        <v>3.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,16 +759,16 @@
         <v>41551.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.47</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41551.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.06</v>
+        <v>3.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.56</v>
+        <v>2.86</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.07</v>
+        <v>4.41</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.62</v>
+        <v>1.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>3.98</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>186.51</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>35.35</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>39.83</v>
-      </c>
       <c r="AG4" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41551.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.42</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>36.75</v>
+        <v>3.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>132.58</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.42</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.69</v>
+        <v>3.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41551.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.37</v>
+        <v>3.44</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.07</v>
+        <v>2.81</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>47.57</v>
+        <v>4.76</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.71</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.53</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41551.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>26.46</v>
+        <v>2.65</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>38.58</v>
+        <v>3.86</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>138.18</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>35.23</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.04</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41551.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>27.14</v>
+        <v>2.71</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>91.23</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>24.85</v>
+        <v>2.49</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41551.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>70.59999999999999</v>
+        <v>7.06</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41551.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P10" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
         <v>9.58</v>
       </c>
-      <c r="Q10" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="R10" s="4" t="n">
+      <c r="U10" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>95.75</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>3.58</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41551.34027777778</v>
+        <v>44800.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.38</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.15</v>
+        <v>4.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.93</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.39</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41551.34722222222</v>
+        <v>44800.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="T3" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.79</v>
+        <v>2.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41551.35416666666</v>
+        <v>44800.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.51</v>
+        <v>4.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.86</v>
+        <v>4.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.41</v>
+        <v>6.77</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.96</v>
+        <v>2.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.4</v>
+        <v>2.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.79</v>
+        <v>2.57</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.65</v>
+        <v>26.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.35</v>
+        <v>3.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.49</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.48</v>
+        <v>2.13</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.98</v>
+        <v>6.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41551.36111111111</v>
+        <v>44800.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.53</v>
+        <v>1.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.67</v>
+        <v>2.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="X5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.37</v>
+        <v>2.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41551.36805555555</v>
+        <v>44800.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.57</v>
+        <v>14.53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.2</v>
+        <v>10.98</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.44</v>
+        <v>31.22</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.81</v>
+        <v>26.13</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.27</v>
+        <v>11.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.76</v>
+        <v>42.31</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.92</v>
+        <v>17.26</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.85</v>
+        <v>7.82</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.27</v>
+        <v>11.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.37</v>
+        <v>12.63</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.45</v>
+        <v>13.26</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.39</v>
+        <v>3.6</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.24</v>
+        <v>11.18</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.76</v>
+        <v>16.09</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.05</v>
+        <v>9.32</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.17</v>
+        <v>164.2</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.47</v>
+        <v>31.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.15</v>
+        <v>10.29</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.32</v>
+        <v>21.17</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.22</v>
+        <v>11.35</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.48</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.32</v>
+        <v>21.16</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.01</v>
+        <v>8.94</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.89</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.04</v>
+        <v>9.35</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.45</v>
+        <v>13.3</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.33</v>
+        <v>37.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.65</v>
+        <v>6.06</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41551.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41551.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41551.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41551.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41551.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.48</v>
+        <v>12.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -451,27 +451,27 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44800.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44800.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.58</v>
+        <v>25.77</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.07</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.18</v>
+        <v>31.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.53</v>
+        <v>135.34</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.58</v>
+        <v>25.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.15</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44800.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.99</v>
+        <v>49.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.77</v>
+        <v>67.73</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.76</v>
+        <v>27.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.71</v>
+        <v>267.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.02</v>
+        <v>50.16</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.46</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.44</v>
+        <v>34.38</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.28</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.12</v>
+        <v>61.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44800.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.48</v>
+        <v>24.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.69</v>
+        <v>66.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44800.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.22</v>
+        <v>12.222</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.51</v>
+        <v>9.505000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.77</v>
+        <v>25.772</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.07</v>
+        <v>22.071</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.78</v>
+        <v>31.776</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.97</v>
+        <v>13.971</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>6.42</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.1</v>
+        <v>10.098</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.75</v>
+        <v>10.752</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.84</v>
+        <v>10.844</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.92</v>
+        <v>2.921</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.26</v>
+        <v>13.256</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.34</v>
+        <v>135.341</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.82</v>
+        <v>25.824</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.394</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.28</v>
+        <v>17.278</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>9.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.54</v>
+        <v>17.539</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.04</v>
+        <v>7.042</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.76</v>
+        <v>7.757</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.523</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.16</v>
+        <v>11.158</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.15</v>
+        <v>28.147</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.213</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.535</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44800.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.23</v>
+        <v>23.229</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.61</v>
+        <v>17.611</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.93</v>
+        <v>49.934</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.81</v>
+        <v>41.807</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.97</v>
+        <v>17.969</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>67.73</v>
+        <v>67.733</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.57</v>
+        <v>27.566</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.51</v>
+        <v>12.506</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.96</v>
+        <v>18.963</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.26</v>
+        <v>20.259</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.18</v>
+        <v>21.176</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.75</v>
+        <v>5.751</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.9</v>
+        <v>17.901</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.73</v>
+        <v>25.733</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.89</v>
+        <v>14.888</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.597</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.13</v>
+        <v>267.128</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.16</v>
+        <v>50.158</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.46</v>
+        <v>16.458</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.9</v>
+        <v>33.902</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.19</v>
+        <v>18.188</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.374</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.38</v>
+        <v>34.376</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.584</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.95</v>
+        <v>14.946</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.28</v>
+        <v>21.275</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>61.18</v>
+        <v>61.182</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.69</v>
+        <v>9.692</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.61</v>
+        <v>20.614</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44800.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44800.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.38</v>
+        <v>6.382</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.894</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.387</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.41</v>
+        <v>13.415</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.48</v>
+        <v>11.484</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.775</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>24.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.31</v>
+        <v>7.308</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.424</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.243</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.529</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.7</v>
+        <v>5.696</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.551</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.771</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.02</v>
+        <v>7.018</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.02</v>
+        <v>4.016</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.94</v>
+        <v>66.938</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.72</v>
+        <v>13.715</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.358</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.289</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.08</v>
+        <v>5.077</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>12.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.66</v>
+        <v>3.664</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4</v>
+        <v>4.003</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.94</v>
+        <v>3.935</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.819</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.59</v>
+        <v>22.593</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.72</v>
+        <v>2.722</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.48</v>
+        <v>5.481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44800.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_119.xlsx
+++ b/DATA_goal/Junction_Flooding_119.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44800.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.382</v>
+        <v>6.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.894</v>
+        <v>4.89</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.415</v>
+        <v>13.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.484</v>
+        <v>11.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.775</v>
+        <v>4.77</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>24.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.308</v>
+        <v>7.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.424</v>
+        <v>3.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.243</v>
+        <v>5.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.529</v>
+        <v>5.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.696</v>
+        <v>5.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.551</v>
+        <v>1.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.771</v>
+        <v>4.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.018</v>
+        <v>7.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.016</v>
+        <v>4.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.938</v>
+        <v>66.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.715</v>
+        <v>13.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.358</v>
+        <v>4.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.289</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.077</v>
+        <v>5.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>12.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.664</v>
+        <v>3.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.003</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.935</v>
+        <v>3.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.819</v>
+        <v>5.82</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.593</v>
+        <v>22.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.722</v>
+        <v>2.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.481</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44800.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.89</v>
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>
